--- a/Documentação/Requisitos/Requisitos_Funcionais.xlsx
+++ b/Documentação/Requisitos/Requisitos_Funcionais.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Requisitos_Funcionais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Formularios_Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F116FA0-BD7B-4AE8-84D7-E0E996A77E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B543CB-EE9D-42D5-A33B-2D891E456A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{9AD18015-2CB8-42F0-BB7B-121369362437}"/>
+    <workbookView xWindow="10770" yWindow="4155" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9AD18015-2CB8-42F0-BB7B-121369362437}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos_Funcionais" sheetId="1" r:id="rId1"/>
-    <sheet name="RF2" sheetId="4" r:id="rId2"/>
-    <sheet name="RF1" sheetId="2" r:id="rId3"/>
+    <sheet name="RF3" sheetId="4" r:id="rId2"/>
+    <sheet name="RF2" sheetId="6" r:id="rId3"/>
+    <sheet name="RF1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>[cod]</t>
   </si>
@@ -92,6 +93,24 @@
   </si>
   <si>
     <t xml:space="preserve">Exibir os preços do combustível ao cliente </t>
+  </si>
+  <si>
+    <t>RF3</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>UC1</t>
+  </si>
+  <si>
+    <t>Usuario cadastrar usuário</t>
+  </si>
+  <si>
+    <t>UC2</t>
+  </si>
+  <si>
+    <t>Login</t>
   </si>
 </sst>
 </file>
@@ -185,8 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -537,54 +555,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -603,78 +621,77 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>45202</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
-        <v>45202</v>
+      <c r="D5" s="4">
+        <v>45207</v>
       </c>
     </row>
   </sheetData>
@@ -688,14 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63614EDD-53BA-42AB-8976-46B84EDE69A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE923C8F-8A1D-4BE9-8549-F99A1C1F5D53}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,65 +724,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63614EDD-53BA-42AB-8976-46B84EDE69A7}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>45202</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
-        <v>45202</v>
+      <c r="D5" s="4">
+        <v>45207</v>
       </c>
     </row>
   </sheetData>
